--- a/biology/Zoologie/François_Huber/François_Huber.xlsx
+++ b/biology/Zoologie/François_Huber/François_Huber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Huber</t>
+          <t>François_Huber</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Huber est un naturaliste suisse, né le 2 juillet 1750 à Genève et mort le 22 décembre 1831 à Lausanne. Il est, avec Swammerdam, Réaumur et John Hunter, l'un des premiers observateurs scientifiques des abeilles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Huber</t>
+          <t>François_Huber</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,24 +525,21 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille et entourage
-Huber descend d'un ancêtre tyrolien installé à Schaffhouse pour des raisons religieuses.
+          <t>Famille et entourage</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Huber descend d'un ancêtre tyrolien installé à Schaffhouse pour des raisons religieuses.
 Plusieurs membres de sa famille se sont illustrés dans les arts et les sciences :
-sa grand-tante, Marie Huber (1695–1753), prolifique auteur d’ouvrages de théologie, traductrice du quotidien The Spectator[1] ;
-son père, Jean Huber (1721–1786) ancien militaire, ancien membre de la communauté de Ferney, caricaturiste célèbre, auteur d'Observations sur le vol des oiseaux[2], très remarquées ;
-son frère, Jean-Daniel Huber[3], peintre, qui deviendra aveugle lui aussi ;
-sa femme et collaboratrice[4], Marie-Aimée Lullin, fille de Pierre Lullin, professeur de droit et syndic de Genève ;
-son collaborateur[4], François Burnens[5],[6] ;
-sa collaboratrice pour l'étude de la cire, Christine Jurine[7],[8] ;
-son fils, Pierre Huber (1777–1840), auteur de Recherches sur les mœurs des fourmis indigènes, parues en 1810, rééditées en 1861[9].
-Vie
-François Huber est le fils de Jean Huber, peintre et silhouettiste suisse, célèbre pour ses représentations de Voltaire. Il commence à souffrir à quinze ans des premiers signes d’une maladie qui le rendra complètement aveugle. Il étudie la chimie et la physique à l'académie de Genève, avec Horace Bénédict de Saussure. Son père le mène à Paris consulter le célèbre Théodore Tronchin. Tronchin l'envoie se reposer à Stains, mais le jeune adore la campagne et laboure avec cœur.
-Avant que ses yeux ne s'éteignent, Huber a croisé du regard Marie-Aimée Lullin, dont le père, qui est extrêmement riche, ne veut pas d'un aveugle comme gendre. Marie-Aimée attendra sa majorité, à vingt-cinq ans, pour épouser François[11] ; le mariage est célébré en 1776, à peine 23 jours après l'anniversaire de l'épousée[12]. L'union sera heureuse[13].
-C’est grâce à l’aide de sa femme et à celle de son secrétaire, François Burnens, que Huber pourra, malgré sa cécité, mener ses recherches[4]. Il se fait lire les observations de Réaumur sur les abeilles[14]. À l'exemple de Réaumur, il fait construire une ruche vitrée pour les observer. Charles Bonnet l'encourage à publier ses observations[15], ce qui arrive en 1792. En 1814, paraît une nouvelle édition, considérablement augmentée, avec un second volume, inédit.
-Il assiste Jean Senebier (1742–1809) dans la rédaction de ses Mémoires sur l'influence de l'air, etc., dans la germination (Genève, 1800). Il fait aussi paraître des Mémoires sur l'origine de la cire, une Lettre à M. Pictet[16] sur certains dangers que courent les abeilles et des Nouvelles observations relatives au sphinx Atropos.
-Il passe « les dernières années de sa vie auprès de sa fille, Mme de Molin[17], à Lausanne[18] » et meurt en 1831 à l'âge de 81 ans, « aimable et aimant jusqu'à la fin[19] » : « il est des moments où il est impossible de tenir les bras croisés, c'est lorsqu'en les écartant un peu l'un de l'autre on peut dire à ceux qu'on aime tout ce qu'ils vous ont inspiré d'estime, de tendresse et de reconnaissance[20]. »
-Huber était membre de la Société de physique et d'histoire naturelle de Genève (depuis 1790[21]) et membre correspondant de l'Académie des sciences de France (depuis 1813[22]).
-</t>
+sa grand-tante, Marie Huber (1695–1753), prolifique auteur d’ouvrages de théologie, traductrice du quotidien The Spectator ;
+son père, Jean Huber (1721–1786) ancien militaire, ancien membre de la communauté de Ferney, caricaturiste célèbre, auteur d'Observations sur le vol des oiseaux, très remarquées ;
+son frère, Jean-Daniel Huber, peintre, qui deviendra aveugle lui aussi ;
+sa femme et collaboratrice, Marie-Aimée Lullin, fille de Pierre Lullin, professeur de droit et syndic de Genève ;
+son collaborateur, François Burnens, ;
+sa collaboratrice pour l'étude de la cire, Christine Jurine, ;
+son fils, Pierre Huber (1777–1840), auteur de Recherches sur les mœurs des fourmis indigènes, parues en 1810, rééditées en 1861.</t>
         </is>
       </c>
     </row>
@@ -540,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Huber</t>
+          <t>François_Huber</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,14 +564,58 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Huber est le fils de Jean Huber, peintre et silhouettiste suisse, célèbre pour ses représentations de Voltaire. Il commence à souffrir à quinze ans des premiers signes d’une maladie qui le rendra complètement aveugle. Il étudie la chimie et la physique à l'académie de Genève, avec Horace Bénédict de Saussure. Son père le mène à Paris consulter le célèbre Théodore Tronchin. Tronchin l'envoie se reposer à Stains, mais le jeune adore la campagne et laboure avec cœur.
+Avant que ses yeux ne s'éteignent, Huber a croisé du regard Marie-Aimée Lullin, dont le père, qui est extrêmement riche, ne veut pas d'un aveugle comme gendre. Marie-Aimée attendra sa majorité, à vingt-cinq ans, pour épouser François ; le mariage est célébré en 1776, à peine 23 jours après l'anniversaire de l'épousée. L'union sera heureuse.
+C’est grâce à l’aide de sa femme et à celle de son secrétaire, François Burnens, que Huber pourra, malgré sa cécité, mener ses recherches. Il se fait lire les observations de Réaumur sur les abeilles. À l'exemple de Réaumur, il fait construire une ruche vitrée pour les observer. Charles Bonnet l'encourage à publier ses observations, ce qui arrive en 1792. En 1814, paraît une nouvelle édition, considérablement augmentée, avec un second volume, inédit.
+Il assiste Jean Senebier (1742–1809) dans la rédaction de ses Mémoires sur l'influence de l'air, etc., dans la germination (Genève, 1800). Il fait aussi paraître des Mémoires sur l'origine de la cire, une Lettre à M. Pictet sur certains dangers que courent les abeilles et des Nouvelles observations relatives au sphinx Atropos.
+Il passe « les dernières années de sa vie auprès de sa fille, Mme de Molin, à Lausanne » et meurt en 1831 à l'âge de 81 ans, « aimable et aimant jusqu'à la fin » : « il est des moments où il est impossible de tenir les bras croisés, c'est lorsqu'en les écartant un peu l'un de l'autre on peut dire à ceux qu'on aime tout ce qu'ils vous ont inspiré d'estime, de tendresse et de reconnaissance. »
+Huber était membre de la Société de physique et d'histoire naturelle de Genève (depuis 1790) et membre correspondant de l'Académie des sciences de France (depuis 1813).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>François_Huber</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Huber</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Contributions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Huber a vu bien au-delà de tout ce que ses prédécesseurs avaient cru observer. »
-— Jean Senebier[23],[24]
+— Jean Senebier,
 Voici, en suivant principalement Eva Crane (les numéros de page renvoient à son ouvrage), les principales découvertes de François Huber :
 Vers 1790, Huber a probablement été le premier à pratiquer l'insémination artificielle : p. 466 ;
 Huber démontra que la reine est fécondée dans les airs : p. 465 ;
@@ -570,10 +623,10 @@
 Réaumur en 1740 avait décrit la collecte de propolis par les abeilles ; Huber s'arrangea pour qu'elles le collectent à un endroit où on pouvait les observer : p. 562 ;
 à partir d'une observation de Huber et avec l'aide de Mlle Jurine, il montra indiscutablement que la cire a son origine dans des glandes cérifères ;
 Huber trouva des plaques d'une substance semblable à la cire sous les ailes abdominales des abeilles ; il démontra que la cire était sécrétée pourvu que les abeilles aient accès à du miel ou une autre source de sucre : p. 563 ;
-Huber observa et décrivit la construction des rayons de miel : p. 564[25] ;
+Huber observa et décrivit la construction des rayons de miel : p. 564 ;
 Huber observa que les faux-bourdons étaient déjà en vol quand la reine se présentait : p. 570 ;
 Huber distingua clairement la nourriture des ouvrières de la gelée royale, destinée aux futures reines : p. 578.
-Voici comment Louis-François Jéhan[26], pour sa part, décrit la contribution de Huber (nous introduisons des puces) :
+Voici comment Louis-François Jéhan, pour sa part, décrit la contribution de Huber (nous introduisons des puces) :
 « Il démontra que la reine ne devient féconde que dans ses voyages aériens et que, quand cette fécondité est tardive, elle ne pond que des œufs de faux-bourdons ;
 il confirma la découverte du pasteur Schirac sur la faculté que possèdent les nourrices de changer les larves d'ouvrières en larves royales ;
 il découvrit que les abeilles ouvrières peuvent pondre des œufs de faux-bourdons, et indiqua les causes accidentelles de cette fécondité ;
@@ -585,59 +638,139 @@
 il avait fait connaître l'origine de la propolis, il éclaira par des expériences positives celle de la cire, qui était un point fort obscur de l'histoire des abeilles ;
 il distingua les ouvrières qui la fournissent de celles qui la mettent en œuvre ;
 enfin, après des essais ingénieux et multipliés, il réussit à forcer les ouvrières de sculpter leurs cellules sous ses yeux. »
-Ajoutons à cela que Huber a suivi une méthode scientifique rigoureuse, et ce n'est pas le moindre de ses mérites. Il a aussi conçu la ruche à cadres mobiles, qu'il appelait la « ruche en livre[27],[28] » et il a prouvé que les abeilles, en cas de danger, rétrécissaient intentionnellement l'entrée de la ruche.
+Ajoutons à cela que Huber a suivi une méthode scientifique rigoureuse, et ce n'est pas le moindre de ses mérites. Il a aussi conçu la ruche à cadres mobiles, qu'il appelait la « ruche en livre, » et il a prouvé que les abeilles, en cas de danger, rétrécissaient intentionnellement l'entrée de la ruche.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fran%C3%A7ois_Huber</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>François_Huber</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Huber</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les Nouvelles observations
-Première édition
-Nouvelles observations sur les abeilles, adressées à Charles Bonnet, in-8, Genève, Barde, Manget, 1792 — Deviendra le tome 1 de l'édition de 1814.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les Nouvelles observations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Première édition</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nouvelles observations sur les abeilles, adressées à Charles Bonnet, in-8, Genève, Barde, Manget, 1792 — Deviendra le tome 1 de l'édition de 1814.
 Nouvelles observations sur les abeilles, adressées à Charles Bonnet, suivies d’un Manuel pratique de la culture des abeilles, par D., in-12, Paris, Debray, 1796
 (de) Neue Beobachtungen über die Bienen in Briefen an Herrn Carl Bonnet, trad. Johann Riem, Dresde, 1793
-(en) New observations on the natural history of bees, Édimbourg, 1806 — Autre numérisation
-Deuxième édition
-Nouvelles observations sur les abeilles, « seconde édition, revue, corrigée et considérablement augmentée », Paris et Genève, 1814 : t. 1 ; t. 2 — Autre numérisation, chez Google Livres, t. 1 ; t. 2
+(en) New observations on the natural history of bees, Édimbourg, 1806 — Autre numérisation</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>François_Huber</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Huber</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les Nouvelles observations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Deuxième édition</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Nouvelles observations sur les abeilles, « seconde édition, revue, corrigée et considérablement augmentée », Paris et Genève, 1814 : t. 1 ; t. 2 — Autre numérisation, chez Google Livres, t. 1 ; t. 2
 Fragments d'Hubert [sic] sur les abeilles, avec une préface et une introduction par M. le Dr Mayranx, Paris, Bureau de la Bibliothèque choisie, 1829
 (en) Observations on the natural history of bees, 1841
 (de) Neue Beobachtungen über die Bienen, trad. et notes d'après la 2e  éd. par Georg Kleine, Einbeck, 1859 : comprend le t. 1 et (après la p. 310) le t. 2
-(fr + en + es + de) Les Nouvelles observations sur les abeilles, édition du bicentenaire (1814–2014), 2 tomes — Éditions en français, anglais, espagnol et allemand.
-Autres écrits
-(Lettre datée de décembre 1794), dans Mémoires de l'Académie des sciences de Turin, t. VI, 1801, p. 124
+(fr + en + es + de) Les Nouvelles observations sur les abeilles, édition du bicentenaire (1814–2014), 2 tomes — Éditions en français, anglais, espagnol et allemand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>François_Huber</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Huber</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres écrits</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Lettre datée de décembre 1794), dans Mémoires de l'Académie des sciences de Turin, t. VI, 1801, p. 124
 Manuel pratique sur la culture des abeilles, Paris, 1796
 (avec Jean Senebier) Mémoires sur l’influence de l’air et de diverses substances gazeuses dans la germination de différentes graines, Genève, J. J. Paschoud, 1801 — La préface est de Senebier.
-« Mémoire sur l'origine de la cire », dans Journal de physique, de chimie, d'histoire naturelle et des arts, t. 58, 1804, p. 142–152 — Extrait de la Bibliothèque britannique[29]
+« Mémoire sur l'origine de la cire », dans Journal de physique, de chimie, d'histoire naturelle et des arts, t. 58, 1804, p. 142–152 — Extrait de la Bibliothèque britannique
 « Memoir on the origin of wax », dans William Nicholson (éd.), Journal of natural philosophy, chemistry and the arts, sept. 1804, p. 182
 « Sur certains dangers que courent les abeilles » dans Bibliothèque britannique, vol. 27, 1804 :
 « Lettre de M. Huber au prof. Pictet sur certains dangers que courent les abeilles dans leurs ruches, et sur les moyens de les en préserver », vol. 27, no 3
 « Nouvelles communications relatives au Sphinx atropos et à l'industrie des abeilles pour s'en défendre — Extrait d'une lettre de M. Huber au prof. Pictet, faisant suite à celle insérée dans le cahier précédent », vol. 27, no 4Marc-Auguste Pictet, collaborateur à la Bibliothèque ; comme Huber, il avait eu Horace-Bénédict de Saussure comme maître ; il le remplaça dans sa chaire.
-« Lettres inédites de François Huber pour faire suite aux Nouvelles observations (sur les abeilles) », introduction d'Édouard Bertrand, Nyon, Revue internationale d'apiculture, 1897[30]</t>
+« Lettres inédites de François Huber pour faire suite aux Nouvelles observations (sur les abeilles) », introduction d'Édouard Bertrand, Nyon, Revue internationale d'apiculture, 1897</t>
         </is>
       </c>
     </row>
